--- a/var_tvar_ifrs17_2.xlsx
+++ b/var_tvar_ifrs17_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Python_script\Github\IBNR-NIIF-17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341708A6-52BA-4B9E-A481-F8B192366126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ECE3DC-06CD-43A0-AF73-D69EE4FDD4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1620" yWindow="4815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,10 +436,14 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-71.447585515434142</v>
+        <v>-81.350872694048888</v>
       </c>
       <c r="D2">
-        <v>121.5853312453528</v>
+        <v>135.1384349146129</v>
+      </c>
+      <c r="E2">
+        <f>A2*5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -447,13 +451,17 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.6005825877329256</v>
+        <v>2.7264839846824338</v>
       </c>
       <c r="C3">
-        <v>-33.021098530230113</v>
+        <v>-44.773801568016097</v>
       </c>
       <c r="D3">
-        <v>121.5853312453528</v>
+        <v>135.1384349146129</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E21" si="0">A3*5</f>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -461,13 +469,17 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.6497337602511291</v>
+        <v>5.1346428936355286</v>
       </c>
       <c r="C4">
-        <v>-23.049652785107149</v>
+        <v>-36.936825624511599</v>
       </c>
       <c r="D4">
-        <v>121.5853312453528</v>
+        <v>135.1384349146129</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -475,13 +487,17 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.585022231076669</v>
+        <v>7.4305641201571042</v>
       </c>
       <c r="C5">
-        <v>-14.90492333319653</v>
+        <v>-31.014097252979951</v>
       </c>
       <c r="D5">
-        <v>121.5853312453528</v>
+        <v>135.1384349146129</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -489,13 +505,17 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.561718429070979</v>
+        <v>9.667132394255157</v>
       </c>
       <c r="C6">
-        <v>-7.7747733003307804</v>
+        <v>-25.75921908632855</v>
       </c>
       <c r="D6">
-        <v>121.5853312453528</v>
+        <v>135.1384349146129</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -503,13 +523,17 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.753827168072291</v>
+        <v>11.870639721200041</v>
       </c>
       <c r="C7">
-        <v>-1.0903619294906619</v>
+        <v>-21.075307453419921</v>
       </c>
       <c r="D7">
-        <v>121.5853312453528</v>
+        <v>135.1384349146129</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -517,13 +541,17 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.365651183655149</v>
+        <v>14.068992809961401</v>
       </c>
       <c r="C8">
-        <v>5.7317039350374142</v>
+        <v>-16.760079596877521</v>
       </c>
       <c r="D8">
-        <v>121.5853312453528</v>
+        <v>135.1384349146129</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -531,17 +559,17 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.711596328025241</v>
+        <v>16.280003930233761</v>
       </c>
       <c r="C9">
-        <v>13.070119432479739</v>
+        <v>-12.6573711897439</v>
       </c>
       <c r="D9">
-        <v>121.5853312453528</v>
+        <v>135.1384349146129</v>
       </c>
       <c r="E9">
-        <f>C9/D9</f>
-        <v>0.10749750235992635</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -549,13 +577,17 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37.445361571757992</v>
+        <v>18.529225190081601</v>
       </c>
       <c r="C10">
-        <v>21.72521429900128</v>
+        <v>-8.7802395316102135</v>
       </c>
       <c r="D10">
-        <v>121.5853312453528</v>
+        <v>135.1384349146129</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -563,13 +595,201 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>47.522826115703488</v>
+        <v>20.837075638112829</v>
       </c>
       <c r="C11">
-        <v>33.993668371897677</v>
+        <v>-4.9623801838399357</v>
       </c>
       <c r="D11">
-        <v>121.5853312453528</v>
+        <v>135.1384349146129</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>23.228011920926331</v>
+      </c>
+      <c r="C12">
+        <v>-1.210803012678467</v>
+      </c>
+      <c r="D12">
+        <v>135.1384349146129</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>25.738041993844121</v>
+      </c>
+      <c r="C13">
+        <v>2.4938689230657962</v>
+      </c>
+      <c r="D13">
+        <v>135.1384349146129</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>28.408543934976869</v>
+      </c>
+      <c r="C14">
+        <v>6.2675479065842286</v>
+      </c>
+      <c r="D14">
+        <v>135.1384349146129</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>31.286339506840481</v>
+      </c>
+      <c r="C15">
+        <v>10.30869721942447</v>
+      </c>
+      <c r="D15">
+        <v>135.1384349146129</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>34.432075594565582</v>
+      </c>
+      <c r="C16">
+        <v>14.569406582717621</v>
+      </c>
+      <c r="D16">
+        <v>135.1384349146129</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>37.950983235055112</v>
+      </c>
+      <c r="C17">
+        <v>19.188254084212339</v>
+      </c>
+      <c r="D17">
+        <v>135.1384349146129</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="F17">
+        <f>C17/D17</f>
+        <v>0.14198961306852798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>42.020205455222658</v>
+      </c>
+      <c r="C18">
+        <v>24.32460919197241</v>
+      </c>
+      <c r="D18">
+        <v>135.1384349146129</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>46.958873478361511</v>
+      </c>
+      <c r="C19">
+        <v>30.33960626945581</v>
+      </c>
+      <c r="D19">
+        <v>135.1384349146129</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>53.42720621157504</v>
+      </c>
+      <c r="C20">
+        <v>38.097763268371061</v>
+      </c>
+      <c r="D20">
+        <v>135.1384349146129</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>63.534408967026827</v>
+      </c>
+      <c r="C21">
+        <v>49.645206754820769</v>
+      </c>
+      <c r="D21">
+        <v>135.1384349146129</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/var_tvar_ifrs17_2.xlsx
+++ b/var_tvar_ifrs17_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Python_script\Github\IBNR-NIIF-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Python Script\Github\IBNR-NIIF-17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ECE3DC-06CD-43A0-AF73-D69EE4FDD4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD233B1-CA2E-4A77-BCA1-8B73FD529D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1620" yWindow="4815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>TVar</t>
+    <t>Tvar - media</t>
   </si>
   <si>
-    <t>Var</t>
+    <t>Var - media</t>
   </si>
   <si>
-    <t>ibnr_mean</t>
+    <t>media</t>
+  </si>
+  <si>
+    <t>Percentil</t>
   </si>
 </sst>
 </file>
@@ -73,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -96,13 +99,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -409,15 +424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,8 +442,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -445,8 +463,16 @@
         <f>A2*5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f t="shared" ref="F2:F16" si="0">C2/D2</f>
+        <v>-0.60198175852377134</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G16" si="1">B2/D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -460,11 +486,19 @@
         <v>135.1384349146129</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E21" si="0">A3*5</f>
+        <f t="shared" ref="E3:E21" si="2">A3*5</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>-0.33131804135741533</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>2.0175488834136345E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -478,11 +512,19 @@
         <v>135.1384349146129</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-0.27332583545051486</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>3.7995429626514823E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -496,11 +538,19 @@
         <v>135.1384349146129</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-0.22949871568792535</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>5.498483184929661E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -514,11 +564,19 @@
         <v>135.1384349146129</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-0.19061356676658633</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>7.1535032948719032E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -532,11 +590,19 @@
         <v>135.1384349146129</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-0.15595346702613758</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>8.7840589013040551E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -550,11 +616,19 @@
         <v>135.1384349146129</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-0.12402156061276988</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.10410800464613107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -568,11 +642,19 @@
         <v>135.1384349146129</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-9.3662259724566502E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.12046908742520414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -586,11 +668,19 @@
         <v>135.1384349146129</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-6.4972186019158801E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.13711291833288786</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -604,11 +694,19 @@
         <v>135.1384349146129</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>-3.6720716700436938E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.15419059463933199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -622,11 +720,19 @@
         <v>135.1384349146129</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>-8.9597235119935476E-3</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.17188309111025984</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -640,11 +746,19 @@
         <v>135.1384349146129</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1.8454179409740427E-2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.19045686010872243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -658,11 +772,19 @@
         <v>135.1384349146129</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>4.637872201601545E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.21021809193607119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -676,11 +798,19 @@
         <v>135.1384349146129</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>7.6282496729653648E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.23151325917462878</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -694,11 +824,19 @@
         <v>135.1384349146129</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.10781097614400587</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.25479113781598445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -712,15 +850,19 @@
         <v>135.1384349146129</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="F17">
         <f>C17/D17</f>
         <v>0.14198961306852798</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f>B17/D17</f>
+        <v>0.28083041851886481</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -734,11 +876,19 @@
         <v>135.1384349146129</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" ref="F18:F21" si="3">C18/D18</f>
+        <v>0.17999771277018187</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G21" si="4">B18/D18</f>
+        <v>0.31094192767418899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -752,11 +902,19 @@
         <v>135.1384349146129</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>0.22450760428464236</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>0.34748717867002404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -770,11 +928,19 @@
         <v>135.1384349146129</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>0.28191656424349665</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>0.39535167212298244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -788,8 +954,16 @@
         <v>135.1384349146129</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>95</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>0.3673655595182011</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>0.47014314622757758</v>
       </c>
     </row>
   </sheetData>
